--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282751.744623533</v>
+        <v>276420.2398242545</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27425644.44599553</v>
+        <v>27425644.44599551</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10007486.91564652</v>
+        <v>10007486.91564653</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -667,10 +667,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>242.9401934788923</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>106.3192265349075</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -797,7 +797,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721267</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>39.94659373728344</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>195.9413238570883</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>125.0832493553115</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>68.83205621563052</v>
+        <v>163.6312040474582</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1119,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.977447387534642</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>120.5071407006443</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>167.253210468447</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>111.5422858787866</v>
+        <v>308.4642389367492</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.70303397773708</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.8144798141292</v>
@@ -1581,22 +1581,22 @@
         <v>154.8418150695856</v>
       </c>
       <c r="T13" t="n">
-        <v>237.573568010422</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3400629131762</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>92.27959370085924</v>
       </c>
       <c r="X13" t="n">
-        <v>183.7917552724841</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>237.1466023540118</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>63.70303397773708</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1051634958459</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6322644466169</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>61.8968784890379</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8144798141292</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4241062587433</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.31655527099964</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.50017915790148</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.8418150695856</v>
+        <v>139.5277141236388</v>
       </c>
       <c r="T16" t="n">
-        <v>237.573568010422</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>157.2400187617484</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>154.8896467177394</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>211.1051634958459</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>333.6111885994812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5277141236387</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4241062587433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.31655527099964</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.50017915790148</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>249.2522834400768</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>269.9081546217441</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.70303397773708</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1051634958459</v>
       </c>
       <c r="U20" t="n">
-        <v>131.975558987749</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8144798141292</v>
+        <v>142.2020847085577</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.573568010422</v>
       </c>
       <c r="U22" t="n">
-        <v>253.0532972226858</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.55697349976</v>
       </c>
       <c r="H23" t="n">
-        <v>277.083250912184</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.1051634958459</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6322644466169</v>
+        <v>105.6653249947261</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2386,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>198.3674667811873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,10 +2493,10 @@
         <v>163.8144798141292</v>
       </c>
       <c r="H25" t="n">
-        <v>125.9145224703536</v>
+        <v>135.4241062587433</v>
       </c>
       <c r="I25" t="n">
-        <v>75.31655527099964</v>
+        <v>65.80697148261005</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>177.3327869085605</v>
+        <v>398.55697349976</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>173.9924209484527</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8144798141292</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>237.573568010422</v>
       </c>
       <c r="U28" t="n">
-        <v>159.5062630653677</v>
+        <v>165.9446207411117</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.5312805738822</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>7.493426312668973</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>277.083250912184</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>136.6720332071351</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8144798141292</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.8418150695856</v>
       </c>
       <c r="T31" t="n">
         <v>237.573568010422</v>
       </c>
       <c r="U31" t="n">
-        <v>159.5062630653677</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>124.5590610228551</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>107.6274942217912</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.50017915790149</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.573568010422</v>
       </c>
       <c r="U34" t="n">
-        <v>215.4364954347029</v>
+        <v>159.5062630653677</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3271,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>38.85354723826892</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.1051634958459</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V35" t="n">
-        <v>86.5312805738822</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.573568010422</v>
+        <v>119.7397681626135</v>
       </c>
       <c r="U37" t="n">
-        <v>159.5062630653677</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,19 +3505,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>91.75433991776129</v>
       </c>
       <c r="G38" t="n">
-        <v>153.8487952738195</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.8144798141292</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>75.31655527099964</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>11.50017915790149</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.9366745926044</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>226.4575590817904</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>104.0554661418081</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.55697349976</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>277.083250912184</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>78.02299988617553</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>103.7113355115589</v>
+        <v>163.8144798141292</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.8418150695856</v>
       </c>
       <c r="T43" t="n">
-        <v>237.573568010422</v>
+        <v>218.0753762862745</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.55697349976</v>
+        <v>347.1214164857722</v>
       </c>
       <c r="H44" t="n">
-        <v>224.6299805415914</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8144798141292</v>
+        <v>96.50034306290044</v>
       </c>
       <c r="H46" t="n">
-        <v>82.35285057519137</v>
+        <v>135.4241062587433</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.8418150695856</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.573568010422</v>
@@ -4194,13 +4194,13 @@
         <v>277.3400629131762</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.396349346219</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C2" t="n">
-        <v>740.4956193595192</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D2" t="n">
-        <v>317.2029985445195</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E2" t="n">
-        <v>71.80886371735554</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F2" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>475.2419029331441</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>932.027809635875</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1845.599623041337</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4363,19 +4363,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.244713637749</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331441</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>349.0032185257595</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>177.0306554046755</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>177.0306554046755</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>177.0306554046755</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>177.0306554046755</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>177.0306554046755</v>
       </c>
       <c r="H4" t="n">
         <v>136.6805607205508</v>
@@ -4488,25 +4488,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4515,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1779.165748561582</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T4" t="n">
-        <v>1779.165748561582</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U4" t="n">
-        <v>1779.165748561582</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V4" t="n">
-        <v>1779.165748561582</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W4" t="n">
-        <v>1779.165748561582</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X4" t="n">
-        <v>1536.601852007387</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>539.1691872378251</v>
       </c>
     </row>
     <row r="5">
@@ -4558,34 +4558,34 @@
         <v>567.5977713918948</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>163.2587089813434</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
-        <v>814.4714747539724</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
         <v>1728.043288159434</v>
@@ -4655,16 +4655,16 @@
         <v>475.2419029331441</v>
       </c>
       <c r="M6" t="n">
-        <v>475.2419029331441</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N6" t="n">
         <v>932.027809635875</v>
       </c>
       <c r="O6" t="n">
+        <v>932.027809635875</v>
+      </c>
+      <c r="P6" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
         <v>1845.599623041337</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1160.278619601534</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1515.706748281297</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1806.305960203198</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1776.072293530599</v>
+        <v>1633.276965236128</v>
       </c>
       <c r="T7" t="n">
-        <v>1532.732945756499</v>
+        <v>1389.937617462028</v>
       </c>
       <c r="U7" t="n">
-        <v>1252.548497256803</v>
+        <v>1109.753168962332</v>
       </c>
       <c r="V7" t="n">
-        <v>970.8370298648322</v>
+        <v>828.0417015703613</v>
       </c>
       <c r="W7" t="n">
-        <v>695.9846260373453</v>
+        <v>553.1892977428744</v>
       </c>
       <c r="X7" t="n">
-        <v>453.4207294831504</v>
+        <v>553.1892977428744</v>
       </c>
       <c r="Y7" t="n">
-        <v>227.0779611728924</v>
+        <v>326.8465294326164</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>887.1053432625264</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="C8" t="n">
-        <v>460.2046132758265</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082674</v>
+        <v>898.0913438079474</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>472.114403955805</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>46.99022214520517</v>
       </c>
       <c r="G8" t="n">
         <v>36.91199246082674</v>
@@ -4813,43 +4813,43 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N8" t="n">
-        <v>932.7282368344229</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1008.829727808632</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>887.1053432625264</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>887.1053432625264</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.1053432625264</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980092</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
         <v>36.91199246082674</v>
@@ -4886,25 +4886,25 @@
         <v>44.35863542273858</v>
       </c>
       <c r="K9" t="n">
+        <v>44.35863542273858</v>
+      </c>
+      <c r="L9" t="n">
         <v>501.1445421254695</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>957.9304488282003</v>
       </c>
-      <c r="M9" t="n">
-        <v>1388.813716338606</v>
-      </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4962,25 +4962,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1742.234349487134</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.656986204522</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.656986204522</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.656986204522</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1394.945518812551</v>
       </c>
       <c r="W10" t="n">
-        <v>1779.165748561582</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="X10" t="n">
-        <v>1536.601852007387</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="Y10" t="n">
-        <v>1310.259083697129</v>
+        <v>1120.093114985063</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1425.751258749807</v>
+        <v>348.4920317908765</v>
       </c>
       <c r="C11" t="n">
-        <v>998.8505287631069</v>
+        <v>348.4920317908765</v>
       </c>
       <c r="D11" t="n">
-        <v>575.5579079481072</v>
+        <v>348.4920317908765</v>
       </c>
       <c r="E11" t="n">
-        <v>149.5809680959647</v>
+        <v>348.4920317908765</v>
       </c>
       <c r="F11" t="n">
         <v>36.91199246082674</v>
@@ -5041,52 +5041,52 @@
         <v>69.07042298278472</v>
       </c>
       <c r="J11" t="n">
-        <v>186.0388083645616</v>
+        <v>206.0266325676174</v>
       </c>
       <c r="K11" t="n">
-        <v>369.5891063408659</v>
+        <v>389.5769305439217</v>
       </c>
       <c r="L11" t="n">
-        <v>603.2960179099855</v>
+        <v>623.2838421130413</v>
       </c>
       <c r="M11" t="n">
-        <v>868.4862711162552</v>
+        <v>888.474095319311</v>
       </c>
       <c r="N11" t="n">
-        <v>1138.717323728837</v>
+        <v>1158.705147931892</v>
       </c>
       <c r="O11" t="n">
-        <v>1391.721863907705</v>
+        <v>1411.709688110761</v>
       </c>
       <c r="P11" t="n">
-        <v>1602.048972843878</v>
+        <v>1622.036797046934</v>
       </c>
       <c r="Q11" t="n">
-        <v>1752.167801045609</v>
+        <v>1772.155625248665</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1781.253124073926</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1781.253124073926</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1523.038715541989</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1165.549300668239</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1165.549300668239</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>753.8293018359861</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>348.4920317908765</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>52.6106037913084</v>
+        <v>76.06790963572024</v>
       </c>
       <c r="J12" t="n">
-        <v>411.3207651501145</v>
+        <v>142.6755785249352</v>
       </c>
       <c r="K12" t="n">
-        <v>537.864039412993</v>
+        <v>269.2188527878137</v>
       </c>
       <c r="L12" t="n">
-        <v>715.5445010071359</v>
+        <v>446.8993143819566</v>
       </c>
       <c r="M12" t="n">
-        <v>926.0347101195426</v>
+        <v>657.3895234943634</v>
       </c>
       <c r="N12" t="n">
-        <v>1144.437373532799</v>
+        <v>875.7921869076195</v>
       </c>
       <c r="O12" t="n">
-        <v>1340.622425412463</v>
+        <v>1071.977238787284</v>
       </c>
       <c r="P12" t="n">
-        <v>1494.936602261058</v>
+        <v>1226.291415635879</v>
       </c>
       <c r="Q12" t="n">
         <v>1675.079969050895</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.2505190707985</v>
+        <v>925.2930622644686</v>
       </c>
       <c r="C13" t="n">
-        <v>415.2505190707985</v>
+        <v>753.3204991433846</v>
       </c>
       <c r="D13" t="n">
-        <v>415.2505190707985</v>
+        <v>753.3204991433846</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2505190707985</v>
+        <v>587.1122932962381</v>
       </c>
       <c r="F13" t="n">
         <v>415.2505190707985</v>
@@ -5199,25 +5199,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07055821607261</v>
+        <v>148.9922748642935</v>
       </c>
       <c r="K13" t="n">
-        <v>140.0219710885956</v>
+        <v>465.2262968508385</v>
       </c>
       <c r="L13" t="n">
-        <v>233.1157325514521</v>
+        <v>922.0122035535694</v>
       </c>
       <c r="M13" t="n">
-        <v>689.901639254183</v>
+        <v>1378.7981102563</v>
       </c>
       <c r="N13" t="n">
-        <v>1146.687545956914</v>
+        <v>1476.412268008896</v>
       </c>
       <c r="O13" t="n">
-        <v>1603.473452659645</v>
+        <v>1563.273865053565</v>
       </c>
       <c r="P13" t="n">
-        <v>1674.70098442659</v>
+        <v>1653.944888590004</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5229,22 +5229,22 @@
         <v>1677.577406649936</v>
       </c>
       <c r="T13" t="n">
-        <v>1437.604105629307</v>
+        <v>1677.577406649936</v>
       </c>
       <c r="U13" t="n">
-        <v>1157.462627939231</v>
+        <v>1677.577406649936</v>
       </c>
       <c r="V13" t="n">
-        <v>875.7511605472594</v>
+        <v>1677.577406649936</v>
       </c>
       <c r="W13" t="n">
-        <v>600.8987567197723</v>
+        <v>1584.365695840987</v>
       </c>
       <c r="X13" t="n">
-        <v>415.2505190707985</v>
+        <v>1341.801799286792</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.2505190707985</v>
+        <v>1115.459030976534</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>889.7896622996691</v>
+        <v>1126.647365842336</v>
       </c>
       <c r="C14" t="n">
-        <v>462.8889323129692</v>
+        <v>699.7466358556364</v>
       </c>
       <c r="D14" t="n">
-        <v>462.8889323129692</v>
+        <v>276.4540150406367</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082674</v>
+        <v>276.4540150406367</v>
       </c>
       <c r="F14" t="n">
         <v>36.91199246082674</v>
@@ -5308,22 +5308,22 @@
         <v>1781.253124073926</v>
       </c>
       <c r="T14" t="n">
-        <v>1568.015585189233</v>
+        <v>1781.253124073926</v>
       </c>
       <c r="U14" t="n">
-        <v>1309.801176657296</v>
+        <v>1523.038715541989</v>
       </c>
       <c r="V14" t="n">
-        <v>952.3117617835458</v>
+        <v>1523.038715541989</v>
       </c>
       <c r="W14" t="n">
-        <v>889.7896622996691</v>
+        <v>1126.647365842336</v>
       </c>
       <c r="X14" t="n">
-        <v>889.7896622996691</v>
+        <v>1126.647365842336</v>
       </c>
       <c r="Y14" t="n">
-        <v>889.7896622996691</v>
+        <v>1126.647365842336</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>52.6106037913084</v>
+        <v>76.06790963572024</v>
       </c>
       <c r="J15" t="n">
-        <v>299.4048312074318</v>
+        <v>434.7780709945263</v>
       </c>
       <c r="K15" t="n">
-        <v>425.9481054703102</v>
+        <v>561.3213452574048</v>
       </c>
       <c r="L15" t="n">
-        <v>603.6285670644531</v>
+        <v>739.0018068515477</v>
       </c>
       <c r="M15" t="n">
-        <v>814.1187761768599</v>
+        <v>949.4920159639545</v>
       </c>
       <c r="N15" t="n">
-        <v>1032.521439590116</v>
+        <v>1167.894679377211</v>
       </c>
       <c r="O15" t="n">
-        <v>1228.70649146978</v>
+        <v>1364.079731256875</v>
       </c>
       <c r="P15" t="n">
-        <v>1685.492398172511</v>
+        <v>1518.39390810547</v>
       </c>
       <c r="Q15" t="n">
         <v>1780.535469335801</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.609835137698</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C16" t="n">
-        <v>916.6372720166139</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D16" t="n">
-        <v>753.3204991433846</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>587.1122932962381</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>415.2505190707985</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>249.7813475413751</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>112.989321017392</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
         <v>36.91199246082674</v>
@@ -5448,10 +5448,10 @@
         <v>1015.105965016426</v>
       </c>
       <c r="N16" t="n">
-        <v>1112.720122769021</v>
+        <v>1125.931450120327</v>
       </c>
       <c r="O16" t="n">
-        <v>1269.961152249751</v>
+        <v>1582.717356823058</v>
       </c>
       <c r="P16" t="n">
         <v>1653.944888590004</v>
@@ -5460,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1833.983280457598</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1677.577406649936</v>
+        <v>1704.662538067964</v>
       </c>
       <c r="T16" t="n">
-        <v>1437.604105629307</v>
+        <v>1704.662538067964</v>
       </c>
       <c r="U16" t="n">
-        <v>1278.775803849764</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V16" t="n">
-        <v>1278.775803849764</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.775803849764</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X16" t="n">
-        <v>1278.775803849764</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.775803849764</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.8127224475267</v>
+        <v>620.2669110513039</v>
       </c>
       <c r="C17" t="n">
-        <v>36.91199246082674</v>
+        <v>193.3661810646039</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082674</v>
+        <v>193.3661810646039</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>193.3661810646039</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>193.3661810646039</v>
       </c>
       <c r="G17" t="n">
         <v>36.91199246082674</v>
@@ -5515,25 +5515,25 @@
         <v>69.07042298278472</v>
       </c>
       <c r="J17" t="n">
-        <v>186.0388083645616</v>
+        <v>206.0266325676174</v>
       </c>
       <c r="K17" t="n">
-        <v>369.5891063408659</v>
+        <v>389.5769305439217</v>
       </c>
       <c r="L17" t="n">
-        <v>603.2960179099855</v>
+        <v>623.2838421130413</v>
       </c>
       <c r="M17" t="n">
-        <v>868.4862711162552</v>
+        <v>888.474095319311</v>
       </c>
       <c r="N17" t="n">
-        <v>1138.717323728837</v>
+        <v>1158.705147931892</v>
       </c>
       <c r="O17" t="n">
-        <v>1391.721863907705</v>
+        <v>1411.709688110761</v>
       </c>
       <c r="P17" t="n">
-        <v>1602.048972843878</v>
+        <v>1622.036797046934</v>
       </c>
       <c r="Q17" t="n">
         <v>1772.155625248665</v>
@@ -5548,19 +5548,19 @@
         <v>1632.362084156644</v>
       </c>
       <c r="U17" t="n">
-        <v>1632.362084156644</v>
+        <v>1374.147675624708</v>
       </c>
       <c r="V17" t="n">
-        <v>1632.362084156644</v>
+        <v>1016.658260750957</v>
       </c>
       <c r="W17" t="n">
-        <v>1632.362084156644</v>
+        <v>620.2669110513039</v>
       </c>
       <c r="X17" t="n">
-        <v>1220.642085324391</v>
+        <v>620.2669110513039</v>
       </c>
       <c r="Y17" t="n">
-        <v>883.6610867390567</v>
+        <v>620.2669110513039</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>52.6106037913084</v>
       </c>
       <c r="J18" t="n">
-        <v>240.1337255221263</v>
+        <v>411.3207651501145</v>
       </c>
       <c r="K18" t="n">
-        <v>366.6769997850047</v>
+        <v>537.864039412993</v>
       </c>
       <c r="L18" t="n">
-        <v>544.3574613791476</v>
+        <v>715.5445010071359</v>
       </c>
       <c r="M18" t="n">
-        <v>754.8476704915544</v>
+        <v>926.0347101195426</v>
       </c>
       <c r="N18" t="n">
-        <v>973.2503339048104</v>
+        <v>1144.437373532799</v>
       </c>
       <c r="O18" t="n">
-        <v>1169.435385784475</v>
+        <v>1340.622425412463</v>
       </c>
       <c r="P18" t="n">
-        <v>1323.74956263307</v>
+        <v>1494.936602261058</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.535469335801</v>
+        <v>1675.079969050895</v>
       </c>
       <c r="R18" t="n">
         <v>1814.280997066677</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.1406636082745</v>
+        <v>349.8216405552832</v>
       </c>
       <c r="C19" t="n">
-        <v>751.1681004871905</v>
+        <v>177.8490774341992</v>
       </c>
       <c r="D19" t="n">
-        <v>587.8513276139612</v>
+        <v>177.8490774341992</v>
       </c>
       <c r="E19" t="n">
-        <v>421.6431217668147</v>
+        <v>177.8490774341992</v>
       </c>
       <c r="F19" t="n">
-        <v>249.7813475413751</v>
+        <v>177.8490774341992</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7813475413751</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>112.989321017392</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>148.9922748642935</v>
+        <v>71.07055821607261</v>
       </c>
       <c r="K19" t="n">
-        <v>465.2262968508385</v>
+        <v>387.3045802026177</v>
       </c>
       <c r="L19" t="n">
-        <v>922.0122035535694</v>
+        <v>480.3983416654742</v>
       </c>
       <c r="M19" t="n">
-        <v>1020.695993297442</v>
+        <v>820.5190407954956</v>
       </c>
       <c r="N19" t="n">
-        <v>1118.310151050037</v>
+        <v>1277.304947498227</v>
       </c>
       <c r="O19" t="n">
-        <v>1575.096057752768</v>
+        <v>1734.090854200957</v>
       </c>
       <c r="P19" t="n">
-        <v>1653.944888590004</v>
+        <v>1805.318385967903</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1833.983280457598</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1833.983280457598</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1833.983280457598</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U19" t="n">
-        <v>1582.213297184793</v>
+        <v>1565.45814535126</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.213297184793</v>
+        <v>1283.746677959289</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.213297184793</v>
+        <v>1008.894274131802</v>
       </c>
       <c r="X19" t="n">
-        <v>1339.649400630598</v>
+        <v>766.3303775776068</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.30663232034</v>
+        <v>539.9876092673488</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>887.1053432625264</v>
+        <v>736.44722206545</v>
       </c>
       <c r="C20" t="n">
-        <v>460.2046132758265</v>
+        <v>309.5464920787501</v>
       </c>
       <c r="D20" t="n">
-        <v>36.91199246082674</v>
+        <v>309.5464920787501</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91199246082674</v>
+        <v>309.5464920787501</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082674</v>
+        <v>309.5464920787501</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>309.5464920787501</v>
       </c>
       <c r="H20" t="n">
         <v>36.91199246082674</v>
@@ -5767,37 +5767,37 @@
         <v>1138.717323728837</v>
       </c>
       <c r="O20" t="n">
-        <v>1411.709688110761</v>
+        <v>1391.721863907705</v>
       </c>
       <c r="P20" t="n">
-        <v>1622.036797046934</v>
+        <v>1602.048972843878</v>
       </c>
       <c r="Q20" t="n">
-        <v>1772.155625248665</v>
+        <v>1752.167801045609</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1781.253124073926</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1568.015585189233</v>
       </c>
       <c r="U20" t="n">
-        <v>1712.290977599166</v>
+        <v>1568.015585189233</v>
       </c>
       <c r="V20" t="n">
-        <v>1712.290977599166</v>
+        <v>1568.015585189233</v>
       </c>
       <c r="W20" t="n">
-        <v>1712.290977599166</v>
+        <v>1568.015585189233</v>
       </c>
       <c r="X20" t="n">
-        <v>1712.290977599166</v>
+        <v>1156.29558635698</v>
       </c>
       <c r="Y20" t="n">
-        <v>1306.953707554057</v>
+        <v>1156.29558635698</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>76.06790963572024</v>
       </c>
       <c r="J21" t="n">
-        <v>434.7780709945263</v>
+        <v>217.3156156680741</v>
       </c>
       <c r="K21" t="n">
-        <v>561.3213452574048</v>
+        <v>343.8588899309526</v>
       </c>
       <c r="L21" t="n">
-        <v>739.0018068515477</v>
+        <v>800.6447966336834</v>
       </c>
       <c r="M21" t="n">
-        <v>949.4920159639545</v>
+        <v>1011.13500574609</v>
       </c>
       <c r="N21" t="n">
         <v>1229.537669159346</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>374.3537271113341</v>
+        <v>352.4122360888499</v>
       </c>
       <c r="C22" t="n">
-        <v>202.3811639902501</v>
+        <v>352.4122360888499</v>
       </c>
       <c r="D22" t="n">
-        <v>202.3811639902501</v>
+        <v>352.4122360888499</v>
       </c>
       <c r="E22" t="n">
-        <v>202.3811639902501</v>
+        <v>352.4122360888499</v>
       </c>
       <c r="F22" t="n">
-        <v>202.3811639902501</v>
+        <v>180.5504618634103</v>
       </c>
       <c r="G22" t="n">
         <v>36.91199246082674</v>
@@ -5910,25 +5910,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>71.07055821607261</v>
+        <v>148.9922748642935</v>
       </c>
       <c r="K22" t="n">
-        <v>140.0219710885956</v>
+        <v>465.2262968508385</v>
       </c>
       <c r="L22" t="n">
-        <v>363.7331340927647</v>
+        <v>922.0122035535694</v>
       </c>
       <c r="M22" t="n">
-        <v>820.5190407954956</v>
+        <v>1020.695993297442</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.304947498227</v>
+        <v>1118.310151050037</v>
       </c>
       <c r="O22" t="n">
-        <v>1734.090854200957</v>
+        <v>1269.961152249751</v>
       </c>
       <c r="P22" t="n">
-        <v>1805.318385967903</v>
+        <v>1653.944888590004</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1605.626322020709</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.990231907311</v>
+        <v>1325.484844330632</v>
       </c>
       <c r="V22" t="n">
-        <v>1308.27876451534</v>
+        <v>1043.77337693866</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.426360687853</v>
+        <v>768.9209731111735</v>
       </c>
       <c r="X22" t="n">
-        <v>790.8624641336578</v>
+        <v>768.9209731111735</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.5196958233998</v>
+        <v>542.5782048009155</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1168.561521207452</v>
+        <v>1313.803631389583</v>
       </c>
       <c r="C23" t="n">
-        <v>1168.561521207452</v>
+        <v>1313.803631389583</v>
       </c>
       <c r="D23" t="n">
-        <v>1168.561521207452</v>
+        <v>1313.803631389583</v>
       </c>
       <c r="E23" t="n">
-        <v>742.5845813553096</v>
+        <v>887.8266915374408</v>
       </c>
       <c r="F23" t="n">
-        <v>742.5845813553096</v>
+        <v>462.702509726841</v>
       </c>
       <c r="G23" t="n">
-        <v>340.0017798404006</v>
+        <v>60.11970821193188</v>
       </c>
       <c r="H23" t="n">
         <v>60.11970821193188</v>
@@ -5989,19 +5989,19 @@
         <v>92.27813873388986</v>
       </c>
       <c r="J23" t="n">
-        <v>600.9757428232928</v>
+        <v>231.3480055385999</v>
       </c>
       <c r="K23" t="n">
-        <v>784.5260407995971</v>
+        <v>414.8983035149043</v>
       </c>
       <c r="L23" t="n">
-        <v>1018.232952368717</v>
+        <v>648.6052150840238</v>
       </c>
       <c r="M23" t="n">
-        <v>1283.423205574986</v>
+        <v>913.7954682902936</v>
       </c>
       <c r="N23" t="n">
-        <v>1553.654258187568</v>
+        <v>1184.026520902875</v>
       </c>
       <c r="O23" t="n">
         <v>1928.007910025532</v>
@@ -6019,22 +6019,22 @@
         <v>3005.985410596594</v>
       </c>
       <c r="T23" t="n">
-        <v>2792.747871711901</v>
+        <v>3005.985410596594</v>
       </c>
       <c r="U23" t="n">
-        <v>2534.533463179965</v>
+        <v>2899.252759086769</v>
       </c>
       <c r="V23" t="n">
-        <v>2177.044048306214</v>
+        <v>2541.763344213019</v>
       </c>
       <c r="W23" t="n">
-        <v>1780.652698606561</v>
+        <v>2145.371994513366</v>
       </c>
       <c r="X23" t="n">
-        <v>1368.932699774308</v>
+        <v>1733.651995681113</v>
       </c>
       <c r="Y23" t="n">
-        <v>1168.561521207452</v>
+        <v>1733.651995681113</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1785.724860686047</v>
+        <v>617.2281629072346</v>
       </c>
       <c r="C24" t="n">
-        <v>1668.218957203552</v>
+        <v>499.7222594247394</v>
       </c>
       <c r="D24" t="n">
-        <v>1564.378998718837</v>
+        <v>395.8823009400244</v>
       </c>
       <c r="E24" t="n">
-        <v>1459.677064991774</v>
+        <v>291.1803672129616</v>
       </c>
       <c r="F24" t="n">
-        <v>1366.031234674678</v>
+        <v>197.5345368958658</v>
       </c>
       <c r="G24" t="n">
-        <v>1272.917145313946</v>
+        <v>104.4204475351334</v>
       </c>
       <c r="H24" t="n">
-        <v>1228.616405990744</v>
+        <v>60.11970821193188</v>
       </c>
       <c r="I24" t="n">
-        <v>1267.772323165638</v>
+        <v>75.81831954241353</v>
       </c>
       <c r="J24" t="n">
-        <v>1626.482484524444</v>
+        <v>434.5284809012196</v>
       </c>
       <c r="K24" t="n">
-        <v>1753.025758787322</v>
+        <v>561.071755164098</v>
       </c>
       <c r="L24" t="n">
-        <v>1930.706220381465</v>
+        <v>738.7522167582409</v>
       </c>
       <c r="M24" t="n">
-        <v>2141.196429493872</v>
+        <v>949.2424258706477</v>
       </c>
       <c r="N24" t="n">
-        <v>2359.599092907128</v>
+        <v>1167.645089283904</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.784144786793</v>
+        <v>1363.830141163568</v>
       </c>
       <c r="P24" t="n">
-        <v>2710.098321635387</v>
+        <v>1518.144318012163</v>
       </c>
       <c r="Q24" t="n">
-        <v>2866.784382580812</v>
+        <v>1698.287684802</v>
       </c>
       <c r="R24" t="n">
-        <v>3005.985410596594</v>
+        <v>1837.488712817782</v>
       </c>
       <c r="S24" t="n">
-        <v>2942.115351998838</v>
+        <v>1773.618654220027</v>
       </c>
       <c r="T24" t="n">
-        <v>2804.022995882082</v>
+        <v>1635.52629810327</v>
       </c>
       <c r="U24" t="n">
-        <v>2619.316621013671</v>
+        <v>1450.819923234859</v>
       </c>
       <c r="V24" t="n">
-        <v>2414.343482152937</v>
+        <v>1245.846784374125</v>
       </c>
       <c r="W24" t="n">
-        <v>2217.822104986154</v>
+        <v>1049.325407207342</v>
       </c>
       <c r="X24" t="n">
-        <v>2054.344758752817</v>
+        <v>885.848060974005</v>
       </c>
       <c r="Y24" t="n">
-        <v>1914.65187010611</v>
+        <v>746.1551723272974</v>
       </c>
     </row>
     <row r="25">
@@ -6141,7 +6141,7 @@
         <v>263.3834231021877</v>
       </c>
       <c r="H25" t="n">
-        <v>136.1970367684972</v>
+        <v>126.5913965782047</v>
       </c>
       <c r="I25" t="n">
         <v>60.11970821193188</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>642.5288348482366</v>
+        <v>1291.964549034924</v>
       </c>
       <c r="C26" t="n">
-        <v>215.6281048615367</v>
+        <v>865.0638190482241</v>
       </c>
       <c r="D26" t="n">
-        <v>215.6281048615367</v>
+        <v>865.0638190482241</v>
       </c>
       <c r="E26" t="n">
-        <v>215.6281048615367</v>
+        <v>439.0868791960816</v>
       </c>
       <c r="F26" t="n">
-        <v>215.6281048615367</v>
+        <v>439.0868791960816</v>
       </c>
       <c r="G26" t="n">
         <v>36.50407768117253</v>
@@ -6223,10 +6223,10 @@
         <v>36.50407768117253</v>
       </c>
       <c r="I26" t="n">
-        <v>68.6625082031305</v>
+        <v>68.66250820313053</v>
       </c>
       <c r="J26" t="n">
-        <v>185.6308935849073</v>
+        <v>185.6308935849074</v>
       </c>
       <c r="K26" t="n">
         <v>369.1811915612117</v>
@@ -6271,7 +6271,7 @@
         <v>1467.714469184876</v>
       </c>
       <c r="Y26" t="n">
-        <v>1062.377199139767</v>
+        <v>1291.964549034924</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>75.65999485606602</v>
       </c>
       <c r="J27" t="n">
-        <v>434.3701562148721</v>
+        <v>170.8184589553762</v>
       </c>
       <c r="K27" t="n">
-        <v>560.9134304777506</v>
+        <v>622.5564202598863</v>
       </c>
       <c r="L27" t="n">
-        <v>738.5938920718935</v>
+        <v>800.2368818540292</v>
       </c>
       <c r="M27" t="n">
-        <v>949.0841011843002</v>
+        <v>1010.727090966436</v>
       </c>
       <c r="N27" t="n">
-        <v>1167.486764597556</v>
+        <v>1229.129754379692</v>
       </c>
       <c r="O27" t="n">
-        <v>1363.671816477221</v>
+        <v>1425.314806259356</v>
       </c>
       <c r="P27" t="n">
-        <v>1517.985993325815</v>
+        <v>1579.628983107951</v>
       </c>
       <c r="Q27" t="n">
         <v>1674.672054271241</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.4766408022565</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="C28" t="n">
-        <v>36.50407768117253</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="D28" t="n">
-        <v>36.50407768117253</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="E28" t="n">
-        <v>36.50407768117253</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="F28" t="n">
-        <v>36.50407768117253</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="G28" t="n">
         <v>36.50407768117253</v>
@@ -6390,10 +6390,10 @@
         <v>139.6140563089414</v>
       </c>
       <c r="L28" t="n">
-        <v>591.3520176134515</v>
+        <v>358.4812313047171</v>
       </c>
       <c r="M28" t="n">
-        <v>1043.089978917962</v>
+        <v>810.2191926092272</v>
       </c>
       <c r="N28" t="n">
         <v>1261.957153913737</v>
@@ -6417,19 +6417,19 @@
         <v>1585.230583037998</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.113145598233</v>
+        <v>1417.609754006573</v>
       </c>
       <c r="V28" t="n">
-        <v>1142.401678206262</v>
+        <v>1135.898286614601</v>
       </c>
       <c r="W28" t="n">
-        <v>867.5492743787751</v>
+        <v>861.0458827871145</v>
       </c>
       <c r="X28" t="n">
-        <v>624.9853778245802</v>
+        <v>618.4819862329196</v>
       </c>
       <c r="Y28" t="n">
-        <v>398.6426095143222</v>
+        <v>392.1392179226616</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1737.798550145614</v>
+        <v>749.9322066493281</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.897820158915</v>
+        <v>749.9322066493281</v>
       </c>
       <c r="D29" t="n">
-        <v>887.6051993439148</v>
+        <v>749.9322066493281</v>
       </c>
       <c r="E29" t="n">
-        <v>461.6282594917723</v>
+        <v>323.9552667971857</v>
       </c>
       <c r="F29" t="n">
-        <v>36.50407768117253</v>
+        <v>316.3861493096413</v>
       </c>
       <c r="G29" t="n">
-        <v>36.50407768117253</v>
+        <v>316.3861493096413</v>
       </c>
       <c r="H29" t="n">
         <v>36.50407768117253</v>
@@ -6496,19 +6496,19 @@
         <v>1825.203884058627</v>
       </c>
       <c r="U29" t="n">
-        <v>1825.203884058627</v>
+        <v>1566.989475526691</v>
       </c>
       <c r="V29" t="n">
-        <v>1825.203884058627</v>
+        <v>1566.989475526691</v>
       </c>
       <c r="W29" t="n">
-        <v>1825.203884058627</v>
+        <v>1566.989475526691</v>
       </c>
       <c r="X29" t="n">
-        <v>1825.203884058627</v>
+        <v>1155.269476694438</v>
       </c>
       <c r="Y29" t="n">
-        <v>1825.203884058627</v>
+        <v>749.9322066493281</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>434.3701562148721</v>
       </c>
       <c r="K30" t="n">
-        <v>560.9134304777506</v>
+        <v>622.5564202598863</v>
       </c>
       <c r="L30" t="n">
-        <v>738.5938920718935</v>
+        <v>800.2368818540292</v>
       </c>
       <c r="M30" t="n">
-        <v>949.0841011843002</v>
+        <v>1010.727090966436</v>
       </c>
       <c r="N30" t="n">
-        <v>1167.486764597556</v>
+        <v>1229.129754379692</v>
       </c>
       <c r="O30" t="n">
-        <v>1363.671816477221</v>
+        <v>1425.314806259356</v>
       </c>
       <c r="P30" t="n">
-        <v>1517.985993325815</v>
+        <v>1579.628983107951</v>
       </c>
       <c r="Q30" t="n">
         <v>1674.672054271241</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.4766408022565</v>
+        <v>678.2065769739123</v>
       </c>
       <c r="C31" t="n">
-        <v>36.50407768117253</v>
+        <v>506.2340138528283</v>
       </c>
       <c r="D31" t="n">
-        <v>36.50407768117253</v>
+        <v>368.1814550577424</v>
       </c>
       <c r="E31" t="n">
-        <v>36.50407768117253</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="F31" t="n">
-        <v>36.50407768117253</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="G31" t="n">
         <v>36.50407768117253</v>
@@ -6630,13 +6630,13 @@
         <v>591.3520176134515</v>
       </c>
       <c r="M31" t="n">
-        <v>1043.089978917962</v>
+        <v>690.0358073573238</v>
       </c>
       <c r="N31" t="n">
-        <v>1261.957153913737</v>
+        <v>1141.773768661834</v>
       </c>
       <c r="O31" t="n">
-        <v>1713.695115218247</v>
+        <v>1400.93891064494</v>
       </c>
       <c r="P31" t="n">
         <v>1784.922646985193</v>
@@ -6648,25 +6648,25 @@
         <v>1825.203884058627</v>
       </c>
       <c r="S31" t="n">
-        <v>1825.203884058627</v>
+        <v>1668.798010250965</v>
       </c>
       <c r="T31" t="n">
-        <v>1585.230583037998</v>
+        <v>1428.824709230336</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.113145598233</v>
+        <v>1428.824709230336</v>
       </c>
       <c r="V31" t="n">
-        <v>1142.401678206262</v>
+        <v>1147.113241838365</v>
       </c>
       <c r="W31" t="n">
-        <v>867.5492743787751</v>
+        <v>1147.113241838365</v>
       </c>
       <c r="X31" t="n">
-        <v>624.9853778245802</v>
+        <v>904.5493452841703</v>
       </c>
       <c r="Y31" t="n">
-        <v>398.6426095143222</v>
+        <v>678.2065769739123</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>588.2982508897343</v>
+        <v>884.920880306772</v>
       </c>
       <c r="C32" t="n">
-        <v>588.2982508897343</v>
+        <v>884.920880306772</v>
       </c>
       <c r="D32" t="n">
-        <v>588.2982508897343</v>
+        <v>461.6282594917723</v>
       </c>
       <c r="E32" t="n">
-        <v>162.3213110375918</v>
+        <v>461.6282594917723</v>
       </c>
       <c r="F32" t="n">
         <v>36.50407768117253</v>
@@ -6700,16 +6700,16 @@
         <v>68.6625082031305</v>
       </c>
       <c r="J32" t="n">
-        <v>185.6308935849075</v>
+        <v>185.6308935849073</v>
       </c>
       <c r="K32" t="n">
-        <v>369.1811915612118</v>
+        <v>369.1811915612117</v>
       </c>
       <c r="L32" t="n">
-        <v>602.8881031303313</v>
+        <v>602.8881031303312</v>
       </c>
       <c r="M32" t="n">
-        <v>868.078356336601</v>
+        <v>868.0783563366008</v>
       </c>
       <c r="N32" t="n">
         <v>1138.309408949182</v>
@@ -6736,16 +6736,16 @@
         <v>1825.203884058627</v>
       </c>
       <c r="V32" t="n">
-        <v>1825.203884058627</v>
+        <v>1716.489243430555</v>
       </c>
       <c r="W32" t="n">
-        <v>1825.203884058627</v>
+        <v>1716.489243430555</v>
       </c>
       <c r="X32" t="n">
-        <v>1413.483885226374</v>
+        <v>1304.769244598302</v>
       </c>
       <c r="Y32" t="n">
-        <v>1008.146615181264</v>
+        <v>1304.769244598302</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>36.50407768117253</v>
       </c>
       <c r="I33" t="n">
-        <v>52.20268901165419</v>
+        <v>75.65999485606602</v>
       </c>
       <c r="J33" t="n">
-        <v>244.7737561406929</v>
+        <v>170.8184589553762</v>
       </c>
       <c r="K33" t="n">
-        <v>371.3170304035713</v>
+        <v>622.5564202598863</v>
       </c>
       <c r="L33" t="n">
-        <v>548.9974919977142</v>
+        <v>800.2368818540292</v>
       </c>
       <c r="M33" t="n">
-        <v>759.487701110121</v>
+        <v>1010.727090966436</v>
       </c>
       <c r="N33" t="n">
-        <v>977.890364523377</v>
+        <v>1229.129754379692</v>
       </c>
       <c r="O33" t="n">
-        <v>1174.075416403041</v>
+        <v>1425.314806259356</v>
       </c>
       <c r="P33" t="n">
-        <v>1328.389593251636</v>
+        <v>1579.628983107951</v>
       </c>
       <c r="Q33" t="n">
-        <v>1780.127554556146</v>
+        <v>1674.672054271241</v>
       </c>
       <c r="R33" t="n">
         <v>1813.873082287022</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.3384150276961</v>
+        <v>208.4766408022565</v>
       </c>
       <c r="C34" t="n">
-        <v>208.3658519066121</v>
+        <v>36.50407768117253</v>
       </c>
       <c r="D34" t="n">
-        <v>208.3658519066121</v>
+        <v>36.50407768117253</v>
       </c>
       <c r="E34" t="n">
-        <v>208.3658519066121</v>
+        <v>36.50407768117253</v>
       </c>
       <c r="F34" t="n">
         <v>36.50407768117253</v>
@@ -6858,19 +6858,19 @@
         <v>36.50407768117253</v>
       </c>
       <c r="J34" t="n">
-        <v>70.66264343641839</v>
+        <v>148.5843600846393</v>
       </c>
       <c r="K34" t="n">
-        <v>139.6140563089414</v>
+        <v>265.3874698418606</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3520176134515</v>
+        <v>358.4812313047171</v>
       </c>
       <c r="M34" t="n">
-        <v>1043.089978917962</v>
+        <v>810.2191926092272</v>
       </c>
       <c r="N34" t="n">
-        <v>1494.827940222472</v>
+        <v>1261.957153913737</v>
       </c>
       <c r="O34" t="n">
         <v>1713.695115218247</v>
@@ -6882,28 +6882,28 @@
         <v>1825.203884058627</v>
       </c>
       <c r="R34" t="n">
-        <v>1813.587541474888</v>
+        <v>1825.203884058627</v>
       </c>
       <c r="S34" t="n">
-        <v>1813.587541474888</v>
+        <v>1825.203884058627</v>
       </c>
       <c r="T34" t="n">
-        <v>1813.587541474888</v>
+        <v>1585.230583037998</v>
       </c>
       <c r="U34" t="n">
-        <v>1595.974919823673</v>
+        <v>1424.113145598233</v>
       </c>
       <c r="V34" t="n">
-        <v>1314.263452431702</v>
+        <v>1142.401678206262</v>
       </c>
       <c r="W34" t="n">
-        <v>1039.411048604215</v>
+        <v>867.5492743787751</v>
       </c>
       <c r="X34" t="n">
-        <v>796.8471520500198</v>
+        <v>624.9853778245802</v>
       </c>
       <c r="Y34" t="n">
-        <v>570.5043837397618</v>
+        <v>398.6426095143222</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1737.798550145614</v>
+        <v>1353.751936641997</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.897820158915</v>
+        <v>926.8512066552976</v>
       </c>
       <c r="D35" t="n">
         <v>887.6051993439148</v>
@@ -6967,22 +6967,22 @@
         <v>1825.203884058627</v>
       </c>
       <c r="T35" t="n">
-        <v>1825.203884058627</v>
+        <v>1611.966345173934</v>
       </c>
       <c r="U35" t="n">
-        <v>1825.203884058627</v>
+        <v>1353.751936641997</v>
       </c>
       <c r="V35" t="n">
-        <v>1737.798550145614</v>
+        <v>1353.751936641997</v>
       </c>
       <c r="W35" t="n">
-        <v>1737.798550145614</v>
+        <v>1353.751936641997</v>
       </c>
       <c r="X35" t="n">
-        <v>1737.798550145614</v>
+        <v>1353.751936641997</v>
       </c>
       <c r="Y35" t="n">
-        <v>1737.798550145614</v>
+        <v>1353.751936641997</v>
       </c>
     </row>
     <row r="36">
@@ -7095,22 +7095,22 @@
         <v>36.50407768117253</v>
       </c>
       <c r="J37" t="n">
-        <v>70.66264343641839</v>
+        <v>148.5843600846393</v>
       </c>
       <c r="K37" t="n">
-        <v>386.8966654229635</v>
+        <v>217.5357729571623</v>
       </c>
       <c r="L37" t="n">
-        <v>479.9904268858199</v>
+        <v>358.4812313047171</v>
       </c>
       <c r="M37" t="n">
-        <v>851.5867915878346</v>
+        <v>810.2191926092272</v>
       </c>
       <c r="N37" t="n">
-        <v>949.2009493404297</v>
+        <v>1261.957153913737</v>
       </c>
       <c r="O37" t="n">
-        <v>1400.93891064494</v>
+        <v>1713.695115218247</v>
       </c>
       <c r="P37" t="n">
         <v>1784.922646985193</v>
@@ -7125,7 +7125,7 @@
         <v>1825.203884058627</v>
       </c>
       <c r="T37" t="n">
-        <v>1585.230583037998</v>
+        <v>1704.25462328831</v>
       </c>
       <c r="U37" t="n">
         <v>1424.113145598233</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191.9069011900812</v>
+        <v>1405.355519767097</v>
       </c>
       <c r="C38" t="n">
-        <v>191.9069011900812</v>
+        <v>978.4547897803968</v>
       </c>
       <c r="D38" t="n">
-        <v>191.9069011900812</v>
+        <v>555.1621689653971</v>
       </c>
       <c r="E38" t="n">
-        <v>191.9069011900812</v>
+        <v>129.1852291132546</v>
       </c>
       <c r="F38" t="n">
-        <v>191.9069011900812</v>
+        <v>36.50407768117253</v>
       </c>
       <c r="G38" t="n">
         <v>36.50407768117253</v>
@@ -7171,10 +7171,10 @@
         <v>36.50407768117253</v>
       </c>
       <c r="I38" t="n">
-        <v>68.66250820313053</v>
+        <v>68.6625082031305</v>
       </c>
       <c r="J38" t="n">
-        <v>185.6308935849074</v>
+        <v>185.6308935849073</v>
       </c>
       <c r="K38" t="n">
         <v>369.1811915612117</v>
@@ -7213,13 +7213,13 @@
         <v>1825.203884058627</v>
       </c>
       <c r="W38" t="n">
-        <v>1428.812534358974</v>
+        <v>1825.203884058627</v>
       </c>
       <c r="X38" t="n">
-        <v>1017.092535526721</v>
+        <v>1825.203884058627</v>
       </c>
       <c r="Y38" t="n">
-        <v>611.7552654816112</v>
+        <v>1825.203884058627</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>75.65999485606602</v>
       </c>
       <c r="J39" t="n">
-        <v>254.7653938049045</v>
+        <v>434.3701562148721</v>
       </c>
       <c r="K39" t="n">
-        <v>381.3086680677829</v>
+        <v>560.9134304777506</v>
       </c>
       <c r="L39" t="n">
-        <v>558.9891296619259</v>
+        <v>738.5938920718935</v>
       </c>
       <c r="M39" t="n">
-        <v>1010.727090966436</v>
+        <v>949.0841011843002</v>
       </c>
       <c r="N39" t="n">
-        <v>1229.129754379692</v>
+        <v>1167.486764597556</v>
       </c>
       <c r="O39" t="n">
-        <v>1425.314806259356</v>
+        <v>1363.671816477221</v>
       </c>
       <c r="P39" t="n">
-        <v>1579.628983107951</v>
+        <v>1517.985993325815</v>
       </c>
       <c r="Q39" t="n">
         <v>1674.672054271241</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.3384150276961</v>
+        <v>613.3399137614746</v>
       </c>
       <c r="C40" t="n">
-        <v>208.3658519066121</v>
+        <v>441.3673506403906</v>
       </c>
       <c r="D40" t="n">
-        <v>208.3658519066121</v>
+        <v>278.0505777671613</v>
       </c>
       <c r="E40" t="n">
-        <v>208.3658519066121</v>
+        <v>278.0505777671613</v>
       </c>
       <c r="F40" t="n">
-        <v>36.50407768117253</v>
+        <v>278.0505777671613</v>
       </c>
       <c r="G40" t="n">
-        <v>36.50407768117253</v>
+        <v>112.5814062377378</v>
       </c>
       <c r="H40" t="n">
-        <v>36.50407768117253</v>
+        <v>112.5814062377378</v>
       </c>
       <c r="I40" t="n">
         <v>36.50407768117253</v>
@@ -7338,10 +7338,10 @@
         <v>139.6140563089414</v>
       </c>
       <c r="L40" t="n">
-        <v>591.3520176134515</v>
+        <v>358.4812313047171</v>
       </c>
       <c r="M40" t="n">
-        <v>1043.089978917962</v>
+        <v>810.2191926092272</v>
       </c>
       <c r="N40" t="n">
         <v>1261.957153913737</v>
@@ -7356,28 +7356,28 @@
         <v>1825.203884058627</v>
       </c>
       <c r="R40" t="n">
-        <v>1825.203884058627</v>
+        <v>1813.587541474888</v>
       </c>
       <c r="S40" t="n">
-        <v>1825.203884058627</v>
+        <v>1813.587541474888</v>
       </c>
       <c r="T40" t="n">
-        <v>1595.974919823673</v>
+        <v>1813.587541474888</v>
       </c>
       <c r="U40" t="n">
-        <v>1595.974919823673</v>
+        <v>1533.446063784811</v>
       </c>
       <c r="V40" t="n">
-        <v>1314.263452431702</v>
+        <v>1304.701054611285</v>
       </c>
       <c r="W40" t="n">
-        <v>1039.411048604215</v>
+        <v>1029.848650783798</v>
       </c>
       <c r="X40" t="n">
-        <v>796.8471520500198</v>
+        <v>1029.848650783798</v>
       </c>
       <c r="Y40" t="n">
-        <v>570.5043837397618</v>
+        <v>803.5058824735402</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>993.635520934844</v>
+        <v>718.9689508245503</v>
       </c>
       <c r="C41" t="n">
-        <v>566.7347909481441</v>
+        <v>718.9689508245503</v>
       </c>
       <c r="D41" t="n">
-        <v>461.6282594917723</v>
+        <v>718.9689508245503</v>
       </c>
       <c r="E41" t="n">
-        <v>461.6282594917723</v>
+        <v>718.9689508245503</v>
       </c>
       <c r="F41" t="n">
-        <v>36.50407768117253</v>
+        <v>718.9689508245503</v>
       </c>
       <c r="G41" t="n">
-        <v>36.50407768117253</v>
+        <v>316.3861493096413</v>
       </c>
       <c r="H41" t="n">
         <v>36.50407768117253</v>
@@ -7444,19 +7444,19 @@
         <v>1825.203884058627</v>
       </c>
       <c r="U41" t="n">
-        <v>1825.203884058627</v>
+        <v>1566.989475526691</v>
       </c>
       <c r="V41" t="n">
-        <v>1825.203884058627</v>
+        <v>1209.50006065294</v>
       </c>
       <c r="W41" t="n">
-        <v>1825.203884058627</v>
+        <v>1130.688949656803</v>
       </c>
       <c r="X41" t="n">
-        <v>1413.483885226374</v>
+        <v>718.9689508245503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1413.483885226374</v>
+        <v>718.9689508245503</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>36.50407768117253</v>
       </c>
       <c r="I42" t="n">
-        <v>52.20268901165419</v>
+        <v>75.65999485606602</v>
       </c>
       <c r="J42" t="n">
-        <v>118.8103579008692</v>
+        <v>434.3701562148721</v>
       </c>
       <c r="K42" t="n">
-        <v>245.3536321637476</v>
+        <v>622.5564202598863</v>
       </c>
       <c r="L42" t="n">
-        <v>423.0340937578904</v>
+        <v>800.2368818540292</v>
       </c>
       <c r="M42" t="n">
-        <v>874.7720550624006</v>
+        <v>1010.727090966436</v>
       </c>
       <c r="N42" t="n">
-        <v>1326.510016366911</v>
+        <v>1229.129754379692</v>
       </c>
       <c r="O42" t="n">
-        <v>1522.695068246575</v>
+        <v>1425.314806259356</v>
       </c>
       <c r="P42" t="n">
-        <v>1677.00924509517</v>
+        <v>1579.628983107951</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.052316258459</v>
+        <v>1674.672054271241</v>
       </c>
       <c r="R42" t="n">
         <v>1813.873082287022</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.305545633993</v>
+        <v>703.3600021564113</v>
       </c>
       <c r="C43" t="n">
-        <v>479.332982512909</v>
+        <v>703.3600021564113</v>
       </c>
       <c r="D43" t="n">
-        <v>479.332982512909</v>
+        <v>540.043229283182</v>
       </c>
       <c r="E43" t="n">
-        <v>313.1247766657625</v>
+        <v>373.8350234360355</v>
       </c>
       <c r="F43" t="n">
-        <v>141.2630024403229</v>
+        <v>201.9732492105959</v>
       </c>
       <c r="G43" t="n">
         <v>36.50407768117253</v>
@@ -7569,25 +7569,25 @@
         <v>36.50407768117253</v>
       </c>
       <c r="J43" t="n">
-        <v>148.5843600846393</v>
+        <v>70.66264343641839</v>
       </c>
       <c r="K43" t="n">
-        <v>464.8183820711843</v>
+        <v>139.6140563089414</v>
       </c>
       <c r="L43" t="n">
-        <v>916.5563433756944</v>
+        <v>358.4812313047171</v>
       </c>
       <c r="M43" t="n">
-        <v>1015.240133119567</v>
+        <v>810.2191926092272</v>
       </c>
       <c r="N43" t="n">
-        <v>1112.854290872162</v>
+        <v>1261.957153913737</v>
       </c>
       <c r="O43" t="n">
-        <v>1249.565413267041</v>
+        <v>1713.695115218247</v>
       </c>
       <c r="P43" t="n">
-        <v>1633.549149607293</v>
+        <v>1784.922646985193</v>
       </c>
       <c r="Q43" t="n">
         <v>1825.203884058627</v>
@@ -7596,25 +7596,25 @@
         <v>1825.203884058627</v>
       </c>
       <c r="S43" t="n">
-        <v>1825.203884058627</v>
+        <v>1668.798010250965</v>
       </c>
       <c r="T43" t="n">
-        <v>1585.230583037998</v>
+        <v>1448.519852386041</v>
       </c>
       <c r="U43" t="n">
-        <v>1585.230583037998</v>
+        <v>1168.378374695964</v>
       </c>
       <c r="V43" t="n">
-        <v>1585.230583037998</v>
+        <v>1168.378374695964</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.378179210511</v>
+        <v>893.5259708684769</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.814282656317</v>
+        <v>893.5259708684769</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.4715143460587</v>
+        <v>893.5259708684769</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>665.9858494401134</v>
+        <v>813.1087109532868</v>
       </c>
       <c r="C44" t="n">
-        <v>665.9858494401134</v>
+        <v>813.1087109532868</v>
       </c>
       <c r="D44" t="n">
-        <v>665.9858494401134</v>
+        <v>813.1087109532868</v>
       </c>
       <c r="E44" t="n">
-        <v>665.9858494401134</v>
+        <v>387.1317711011444</v>
       </c>
       <c r="F44" t="n">
-        <v>665.9858494401134</v>
+        <v>387.1317711011444</v>
       </c>
       <c r="G44" t="n">
-        <v>263.4030479252043</v>
+        <v>36.50407768117253</v>
       </c>
       <c r="H44" t="n">
         <v>36.50407768117253</v>
@@ -7648,16 +7648,16 @@
         <v>68.6625082031305</v>
       </c>
       <c r="J44" t="n">
-        <v>185.6308935849073</v>
+        <v>185.6308935849075</v>
       </c>
       <c r="K44" t="n">
-        <v>369.1811915612117</v>
+        <v>369.1811915612118</v>
       </c>
       <c r="L44" t="n">
-        <v>602.8881031303312</v>
+        <v>602.8881031303313</v>
       </c>
       <c r="M44" t="n">
-        <v>868.0783563366008</v>
+        <v>868.078356336601</v>
       </c>
       <c r="N44" t="n">
         <v>1138.309408949182</v>
@@ -7681,19 +7681,19 @@
         <v>1825.203884058627</v>
       </c>
       <c r="U44" t="n">
-        <v>1825.203884058627</v>
+        <v>1566.989475526691</v>
       </c>
       <c r="V44" t="n">
-        <v>1467.714469184876</v>
+        <v>1209.50006065294</v>
       </c>
       <c r="W44" t="n">
-        <v>1071.323119485223</v>
+        <v>813.1087109532868</v>
       </c>
       <c r="X44" t="n">
-        <v>1071.323119485223</v>
+        <v>813.1087109532868</v>
       </c>
       <c r="Y44" t="n">
-        <v>665.9858494401134</v>
+        <v>813.1087109532868</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>36.50407768117253</v>
       </c>
       <c r="I45" t="n">
-        <v>52.20268901165419</v>
+        <v>75.65999485606602</v>
       </c>
       <c r="J45" t="n">
-        <v>410.9128503704603</v>
+        <v>434.3701562148721</v>
       </c>
       <c r="K45" t="n">
-        <v>537.4561246333387</v>
+        <v>560.9134304777506</v>
       </c>
       <c r="L45" t="n">
-        <v>715.1365862274816</v>
+        <v>738.5938920718935</v>
       </c>
       <c r="M45" t="n">
-        <v>925.6267953398883</v>
+        <v>949.0841011843002</v>
       </c>
       <c r="N45" t="n">
-        <v>1144.029458753144</v>
+        <v>1167.486764597556</v>
       </c>
       <c r="O45" t="n">
-        <v>1340.214510632809</v>
+        <v>1363.671816477221</v>
       </c>
       <c r="P45" t="n">
-        <v>1494.528687481403</v>
+        <v>1517.985993325815</v>
       </c>
       <c r="Q45" t="n">
         <v>1674.672054271241</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>958.5172628281937</v>
+        <v>780.8137414017555</v>
       </c>
       <c r="C46" t="n">
-        <v>786.5446997071097</v>
+        <v>608.8411782806714</v>
       </c>
       <c r="D46" t="n">
-        <v>623.2279268338804</v>
+        <v>608.8411782806714</v>
       </c>
       <c r="E46" t="n">
-        <v>457.0197209867339</v>
+        <v>442.632972433525</v>
       </c>
       <c r="F46" t="n">
-        <v>285.1579467612943</v>
+        <v>270.7711982080854</v>
       </c>
       <c r="G46" t="n">
-        <v>119.6887752318709</v>
+        <v>173.2961042051556</v>
       </c>
       <c r="H46" t="n">
         <v>36.50407768117253</v>
@@ -7833,25 +7833,25 @@
         <v>1825.203884058627</v>
       </c>
       <c r="S46" t="n">
-        <v>1668.798010250965</v>
+        <v>1825.203884058627</v>
       </c>
       <c r="T46" t="n">
-        <v>1428.824709230336</v>
+        <v>1585.230583037998</v>
       </c>
       <c r="U46" t="n">
-        <v>1148.683231540259</v>
+        <v>1305.089105347922</v>
       </c>
       <c r="V46" t="n">
-        <v>1148.683231540259</v>
+        <v>1023.37763795595</v>
       </c>
       <c r="W46" t="n">
-        <v>1148.683231540259</v>
+        <v>1023.37763795595</v>
       </c>
       <c r="X46" t="n">
-        <v>1148.683231540259</v>
+        <v>780.8137414017555</v>
       </c>
       <c r="Y46" t="n">
-        <v>1148.683231540259</v>
+        <v>780.8137414017555</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8069,7 +8069,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>464.1005135391148</v>
+        <v>99.28895563385606</v>
       </c>
       <c r="O3" t="n">
         <v>484.5717954825564</v>
@@ -8081,7 +8081,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8224,19 +8224,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>361.2933355520367</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O5" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8303,19 +8303,19 @@
         <v>183.3088020988907</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>114.4784903637085</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P8" t="n">
         <v>498.9752675705655</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>458.3324042602125</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>374.1586769883663</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8619,7 +8619,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8628,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.0289299912522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>20.1897214172281</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.18972141722821</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.95989457227013</v>
+        <v>357.3186689411382</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>367.3658032726004</v>
       </c>
       <c r="M13" t="n">
         <v>361.719310059453</v>
       </c>
       <c r="N13" t="n">
-        <v>362.7997464142785</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>373.6609188465262</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>19.63989067625531</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.936769233649</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>182.0066247746549</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>305.5269998526627</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>168.7863536030721</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>361.719310059453</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>13.34477510232958</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0903357939997</v>
+        <v>373.6609188465263</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>20.1897214172281</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.18972141722816</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>122.1368210521241</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>365.3968035751934</v>
+        <v>85.95989457227013</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>367.3658032726004</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>243.8756660466152</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>362.7997464142785</v>
       </c>
       <c r="O19" t="n">
-        <v>373.6609188465262</v>
+        <v>373.6609188465263</v>
       </c>
       <c r="P19" t="n">
-        <v>7.698281889181999</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>20.18972141722804</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.18972141722821</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>75.39397691226149</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>281.9246920288767</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>62.26564624458152</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>131.9367692336491</v>
+        <v>367.3658032726004</v>
       </c>
       <c r="M22" t="n">
-        <v>361.719310059453</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>362.7997464142785</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>373.6609188465263</v>
+        <v>65.44384258085223</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>22.32472871003358</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>122.5748602617124</v>
+        <v>495.9362110543314</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.26564624458071</v>
+        <v>85.95989457227036</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9953,10 +9953,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>28.83918708090418</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>328.479481860234</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>62.26564624458163</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10038,13 +10038,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>362.2668685269228</v>
+        <v>127.0438520534537</v>
       </c>
       <c r="M28" t="n">
         <v>356.6203753137755</v>
       </c>
       <c r="N28" t="n">
-        <v>122.4777951951319</v>
+        <v>357.700811668601</v>
       </c>
       <c r="O28" t="n">
         <v>368.5619841008487</v>
@@ -10193,7 +10193,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>62.2656462445816</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>62.26564624458163</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10278,16 +10278,16 @@
         <v>362.2668685269228</v>
       </c>
       <c r="M31" t="n">
-        <v>356.6203753137755</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>122.4777951951319</v>
+        <v>357.700811668601</v>
       </c>
       <c r="O31" t="n">
-        <v>368.5619841008487</v>
+        <v>174.0439847862991</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2357557978017</v>
+        <v>28.83918708090418</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>328.479481860234</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.2978688295159</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>48.33504735828114</v>
       </c>
       <c r="L34" t="n">
-        <v>362.2668685269228</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>356.6203753137755</v>
@@ -10521,7 +10521,7 @@
         <v>357.700811668601</v>
       </c>
       <c r="O34" t="n">
-        <v>133.3389676273796</v>
+        <v>368.5619841008487</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>48.33504735828112</v>
       </c>
       <c r="M37" t="n">
-        <v>275.6692676344871</v>
+        <v>356.6203753137755</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>357.700811668601</v>
       </c>
       <c r="O37" t="n">
         <v>368.5619841008487</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>113.6340707672965</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>243.6845981738418</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>62.26564624458163</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10986,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>362.2668685269228</v>
+        <v>127.0438520534537</v>
       </c>
       <c r="M40" t="n">
         <v>356.6203753137755</v>
       </c>
       <c r="N40" t="n">
-        <v>122.4777951951319</v>
+        <v>357.700811668601</v>
       </c>
       <c r="O40" t="n">
         <v>368.5619841008487</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>62.2656462445816</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>243.6845981738418</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>235.6922200921758</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.156806361300113</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>362.2668685269228</v>
+        <v>127.0438520534537</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>356.6203753137755</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>357.700811668601</v>
       </c>
       <c r="O43" t="n">
-        <v>50.35305590930179</v>
+        <v>368.5619841008487</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.95989457227037</v>
+        <v>62.26564624458163</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,10 +22555,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.7769769747287</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22567,7 +22567,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22615,7 +22615,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>294.9646708097511</v>
       </c>
     </row>
     <row r="3">
@@ -22710,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>102.4117120696437</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>102.6641612710992</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>204.3543479293576</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>169.8064453853941</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>99.60164079042598</v>
+        <v>4.802492958598322</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>390.3182243989112</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>271.9202955020122</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>1.180486537609511</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -23238,16 +23238,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>309.3306541137071</v>
+        <v>112.4087010557445</v>
       </c>
       <c r="G11" t="n">
         <v>398.55697349976</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.70303397773708</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1051634958459</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6322644466169</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.573568010422</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>179.8242860883529</v>
       </c>
       <c r="X13" t="n">
-        <v>56.34650231616885</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>183.7263376384819</v>
       </c>
       <c r="G14" t="n">
         <v>398.55697349976</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1051634958459</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>330.5305577136187</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8144798141292</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4241062587433</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.31655527099964</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.50017915790148</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>15.31410094594682</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.573568010422</v>
       </c>
       <c r="U16" t="n">
-        <v>120.1000441514278</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.55697349976</v>
+        <v>243.6673267820206</v>
       </c>
       <c r="H17" t="n">
         <v>277.083250912184</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6322644466169</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>67.67270874517737</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8144798141292</v>
+        <v>24.28676569049043</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4241062587433</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.31655527099964</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.50017915790148</v>
       </c>
       <c r="S19" t="n">
         <v>154.8418150695856</v>
@@ -23946,13 +23946,13 @@
         <v>237.573568010422</v>
       </c>
       <c r="U19" t="n">
-        <v>28.08777947309932</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23986,7 +23986,7 @@
         <v>398.55697349976</v>
       </c>
       <c r="H20" t="n">
-        <v>277.083250912184</v>
+        <v>7.175096290439967</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.70303397773708</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1051634958459</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>123.6567054588679</v>
+        <v>255.6322644466169</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.61239510557144</v>
       </c>
       <c r="H22" t="n">
         <v>135.4241062587433</v>
@@ -24180,10 +24180,10 @@
         <v>154.8418150695856</v>
       </c>
       <c r="T22" t="n">
-        <v>237.573568010422</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>24.28676569049037</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>277.083250912184</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>63.70303397773708</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.1051634958459</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>149.9669394518909</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.9164305634713</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>9.509583788389605</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.509583788389591</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>221.2241865911995</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>277.083250912184</v>
@@ -24511,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>227.2914763962059</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24615,7 +24615,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8144798141292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>135.4241062587433</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>117.8337998478085</v>
+        <v>111.3954421720645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>329.1186000747325</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>413.3795136798248</v>
       </c>
       <c r="G29" t="n">
         <v>398.55697349976</v>
       </c>
       <c r="H29" t="n">
-        <v>277.083250912184</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>211.1051634958459</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6322644466169</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>25.01157193736194</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8144798141292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>135.4241062587433</v>
@@ -24888,19 +24888,19 @@
         <v>11.50017915790149</v>
       </c>
       <c r="S31" t="n">
-        <v>154.8418150695856</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>117.8337998478085</v>
+        <v>277.3400629131762</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>296.3138789696386</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.55697349976</v>
@@ -24976,7 +24976,7 @@
         <v>255.6322644466169</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>246.2870265032218</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.8144798141292</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>11.50017915790149</v>
       </c>
       <c r="S34" t="n">
         <v>154.8418150695856</v>
       </c>
       <c r="T34" t="n">
-        <v>237.573568010422</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.90356747847329</v>
+        <v>117.8337998478085</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>380.2061473685808</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>63.70303397773709</v>
       </c>
       <c r="T35" t="n">
-        <v>211.1051634958459</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6322644466169</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>267.3832401511308</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25365,10 +25365,10 @@
         <v>154.8418150695856</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>117.8337998478085</v>
       </c>
       <c r="U37" t="n">
-        <v>117.8337998478085</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>329.1186000747325</v>
       </c>
       <c r="G38" t="n">
-        <v>244.7081782259405</v>
+        <v>398.55697349976</v>
       </c>
       <c r="H38" t="n">
         <v>277.083250912184</v>
@@ -25453,13 +25453,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8144798141292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>135.4241062587433</v>
       </c>
       <c r="I40" t="n">
-        <v>75.31655527099964</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>11.50017915790149</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>154.8418150695856</v>
       </c>
       <c r="T40" t="n">
-        <v>10.6368934178175</v>
+        <v>237.573568010422</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3400629131762</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>52.436793636261</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>315.0042284650416</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.55697349976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>277.083250912184</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>211.1051634958459</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6322644466169</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>314.4044363164811</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.10314430257027</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>135.4241062587433</v>
@@ -25836,13 +25836,13 @@
         <v>11.50017915790149</v>
       </c>
       <c r="S43" t="n">
-        <v>154.8418150695856</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>19.49819172414746</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3400629131762</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>51.43555701398782</v>
       </c>
       <c r="H44" t="n">
-        <v>52.45327037059261</v>
+        <v>277.083250912184</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>211.1051634958459</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6322644466169</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>67.31413675122872</v>
       </c>
       <c r="H46" t="n">
-        <v>53.07125568355188</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>75.31655527099964</v>
@@ -26073,7 +26073,7 @@
         <v>11.50017915790149</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.8418150695856</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>392351.1749302415</v>
+        <v>392351.1749302416</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>389369.2643020923</v>
+        <v>389369.2643020922</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389369.2643020923</v>
+        <v>389369.2643020922</v>
       </c>
     </row>
     <row r="14">
@@ -26322,13 +26322,13 @@
         <v>157866.838192643</v>
       </c>
       <c r="E2" t="n">
-        <v>163155.3753514813</v>
+        <v>163155.3753514814</v>
       </c>
       <c r="F2" t="n">
-        <v>163155.3753514813</v>
+        <v>163155.3753514814</v>
       </c>
       <c r="G2" t="n">
-        <v>163155.3753514813</v>
+        <v>163155.3753514814</v>
       </c>
       <c r="H2" t="n">
         <v>163155.3753514813</v>
@@ -26337,25 +26337,25 @@
         <v>224387.9795236548</v>
       </c>
       <c r="J2" t="n">
-        <v>162079.1089706612</v>
+        <v>162079.1089706613</v>
       </c>
       <c r="K2" t="n">
-        <v>162079.1089706612</v>
+        <v>162079.1089706613</v>
       </c>
       <c r="L2" t="n">
         <v>162079.1089706612</v>
       </c>
       <c r="M2" t="n">
-        <v>162079.1089706611</v>
+        <v>162079.1089706613</v>
       </c>
       <c r="N2" t="n">
         <v>162079.1089706612</v>
       </c>
       <c r="O2" t="n">
-        <v>162079.1089706611</v>
+        <v>162079.1089706613</v>
       </c>
       <c r="P2" t="n">
-        <v>162079.1089706613</v>
+        <v>162079.1089706612</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69251.62932334837</v>
+        <v>69251.6293233484</v>
       </c>
       <c r="C4" t="n">
         <v>69251.62932334839</v>
@@ -26438,28 +26438,28 @@
         <v>12053.39075303255</v>
       </c>
       <c r="I4" t="n">
-        <v>39007.26785011653</v>
+        <v>39007.26785011654</v>
       </c>
       <c r="J4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
       <c r="K4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
       <c r="L4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
       <c r="M4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
       <c r="N4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
       <c r="O4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
       <c r="P4" t="n">
-        <v>11579.63086408872</v>
+        <v>11579.63086408873</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127691.2260190542</v>
+        <v>-128395.5858405457</v>
       </c>
       <c r="C6" t="n">
-        <v>26934.49459906637</v>
+        <v>26230.13477757486</v>
       </c>
       <c r="D6" t="n">
-        <v>26934.49459906634</v>
+        <v>26230.13477757483</v>
       </c>
       <c r="E6" t="n">
-        <v>-233852.4164359513</v>
+        <v>-234531.5927471625</v>
       </c>
       <c r="F6" t="n">
-        <v>113620.3441940947</v>
+        <v>112941.1678828835</v>
       </c>
       <c r="G6" t="n">
-        <v>113620.3441940948</v>
+        <v>112941.1678828835</v>
       </c>
       <c r="H6" t="n">
-        <v>113620.3441940948</v>
+        <v>112941.1678828834</v>
       </c>
       <c r="I6" t="n">
-        <v>53118.47004522392</v>
+        <v>52730.87756340389</v>
       </c>
       <c r="J6" t="n">
-        <v>69841.43642437371</v>
+        <v>69157.13503515853</v>
       </c>
       <c r="K6" t="n">
-        <v>113327.8529347556</v>
+        <v>112643.5515455405</v>
       </c>
       <c r="L6" t="n">
-        <v>113327.8529347556</v>
+        <v>112643.5515455404</v>
       </c>
       <c r="M6" t="n">
-        <v>113327.8529347555</v>
+        <v>112643.5515455405</v>
       </c>
       <c r="N6" t="n">
-        <v>113327.8529347556</v>
+        <v>112643.5515455404</v>
       </c>
       <c r="O6" t="n">
-        <v>113327.8529347556</v>
+        <v>112643.5515455405</v>
       </c>
       <c r="P6" t="n">
-        <v>113327.8529347557</v>
+        <v>112643.5515455404</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P2" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M2" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>442.7574853255731</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="O3" t="n">
         <v>461.3999057603342</v>
@@ -34801,7 +34801,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>324.0137127175907</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35023,19 +35023,19 @@
         <v>160.7937153846611</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P8" t="n">
         <v>461.3999057603342</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="Q9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35339,7 +35339,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35348,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.4093672264672</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>32.48326315349291</v>
       </c>
       <c r="J11" t="n">
-        <v>118.149884224017</v>
+        <v>138.3396056412451</v>
       </c>
       <c r="K11" t="n">
         <v>185.4043413902064</v>
@@ -35433,7 +35433,7 @@
         <v>151.635180001749</v>
       </c>
       <c r="R11" t="n">
-        <v>94.37557777346206</v>
+        <v>74.18585635623384</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.85718316210269</v>
+        <v>39.55143148979141</v>
       </c>
       <c r="J12" t="n">
-        <v>362.3334963220263</v>
+        <v>67.28047362546972</v>
       </c>
       <c r="K12" t="n">
         <v>127.8214891544226</v>
@@ -35509,7 +35509,7 @@
         <v>155.8729059076716</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.9629967574109</v>
+        <v>453.321771126279</v>
       </c>
       <c r="R12" t="n">
         <v>140.6070990058403</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.50360177297563</v>
+        <v>113.2124064681482</v>
       </c>
       <c r="K13" t="n">
-        <v>69.64789179042728</v>
+        <v>319.4283050369142</v>
       </c>
       <c r="L13" t="n">
-        <v>94.03410248773386</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M13" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N13" t="n">
-        <v>461.3999057603342</v>
+        <v>98.6001593460557</v>
       </c>
       <c r="O13" t="n">
-        <v>461.3999057603342</v>
+        <v>87.73898691380798</v>
       </c>
       <c r="P13" t="n">
-        <v>71.94700178479323</v>
+        <v>91.58689246104854</v>
       </c>
       <c r="Q13" t="n">
-        <v>172.6248874896431</v>
+        <v>193.5906408599325</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.85718316210269</v>
+        <v>39.55143148979141</v>
       </c>
       <c r="J15" t="n">
-        <v>249.2870984001247</v>
+        <v>362.3334963220263</v>
       </c>
       <c r="K15" t="n">
         <v>127.8214891544226</v>
@@ -35743,10 +35743,10 @@
         <v>198.1667190703681</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>155.8729059076716</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.0031021851408</v>
+        <v>264.7894557882129</v>
       </c>
       <c r="R15" t="n">
         <v>34.08639164734958</v>
@@ -35816,13 +35816,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N16" t="n">
-        <v>98.6001593460557</v>
+        <v>111.9449344483853</v>
       </c>
       <c r="O16" t="n">
-        <v>158.8293227078077</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P16" t="n">
-        <v>387.8623599396494</v>
+        <v>71.94700178479323</v>
       </c>
       <c r="Q16" t="n">
         <v>193.5906408599325</v>
@@ -35883,7 +35883,7 @@
         <v>32.48326315349291</v>
       </c>
       <c r="J17" t="n">
-        <v>118.149884224017</v>
+        <v>138.3396056412451</v>
       </c>
       <c r="K17" t="n">
         <v>185.4043413902064</v>
@@ -35904,7 +35904,7 @@
         <v>212.4516251880529</v>
       </c>
       <c r="Q17" t="n">
-        <v>171.8249014189772</v>
+        <v>151.635180001749</v>
       </c>
       <c r="R17" t="n">
         <v>74.18585635623384</v>
@@ -35962,7 +35962,7 @@
         <v>15.85718316210269</v>
       </c>
       <c r="J18" t="n">
-        <v>189.4172946775938</v>
+        <v>362.3334963220263</v>
       </c>
       <c r="K18" t="n">
         <v>127.8214891544226</v>
@@ -35983,10 +35983,10 @@
         <v>155.8729059076716</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>181.9629967574109</v>
       </c>
       <c r="R18" t="n">
-        <v>34.08639164734958</v>
+        <v>140.6070990058403</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>113.2124064681482</v>
+        <v>34.50360177297563</v>
       </c>
       <c r="K19" t="n">
         <v>319.4283050369142</v>
       </c>
       <c r="L19" t="n">
+        <v>94.03410248773386</v>
+      </c>
+      <c r="M19" t="n">
+        <v>343.5562617474964</v>
+      </c>
+      <c r="N19" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M19" t="n">
-        <v>99.68059570088123</v>
-      </c>
-      <c r="N19" t="n">
-        <v>98.6001593460557</v>
       </c>
       <c r="O19" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P19" t="n">
-        <v>79.64528367397523</v>
+        <v>71.94700178479323</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.5906408599325</v>
+        <v>40.6881182559941</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>272.9606592046277</v>
       </c>
       <c r="O20" t="n">
-        <v>275.7498630120452</v>
+        <v>255.5601415948171</v>
       </c>
       <c r="P20" t="n">
         <v>212.4516251880529</v>
@@ -36144,7 +36144,7 @@
         <v>151.635180001749</v>
       </c>
       <c r="R20" t="n">
-        <v>74.18585635623384</v>
+        <v>94.37557777346206</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>39.55143148979141</v>
       </c>
       <c r="J21" t="n">
-        <v>362.3334963220263</v>
+        <v>142.6744505377312</v>
       </c>
       <c r="K21" t="n">
         <v>127.8214891544226</v>
       </c>
       <c r="L21" t="n">
-        <v>179.4752137314575</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
         <v>212.6163728408149</v>
       </c>
       <c r="N21" t="n">
-        <v>282.8743971670624</v>
+        <v>220.6087509224809</v>
       </c>
       <c r="O21" t="n">
         <v>198.1667190703681</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.50360177297563</v>
+        <v>113.2124064681482</v>
       </c>
       <c r="K22" t="n">
-        <v>69.64789179042728</v>
+        <v>319.4283050369142</v>
       </c>
       <c r="L22" t="n">
-        <v>225.9708717213829</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M22" t="n">
-        <v>461.3999057603342</v>
+        <v>99.68059570088123</v>
       </c>
       <c r="N22" t="n">
-        <v>461.3999057603342</v>
+        <v>98.6001593460557</v>
       </c>
       <c r="O22" t="n">
-        <v>461.3999057603342</v>
+        <v>153.1828294946602</v>
       </c>
       <c r="P22" t="n">
-        <v>71.94700178479323</v>
+        <v>387.8623599396494</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.6881182559941</v>
+        <v>193.5906408599325</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>32.48326315349291</v>
       </c>
       <c r="J23" t="n">
-        <v>513.8359637266697</v>
+        <v>140.4746129340506</v>
       </c>
       <c r="K23" t="n">
         <v>185.4043413902064</v>
@@ -36372,7 +36372,7 @@
         <v>272.9606592046277</v>
       </c>
       <c r="O23" t="n">
-        <v>378.1350018565295</v>
+        <v>751.4963526491484</v>
       </c>
       <c r="P23" t="n">
         <v>212.4516251880529</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>39.55143148979141</v>
+        <v>15.85718316210269</v>
       </c>
       <c r="J24" t="n">
         <v>362.3334963220263</v>
@@ -36457,7 +36457,7 @@
         <v>155.8729059076716</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.2687484297215</v>
+        <v>181.9629967574112</v>
       </c>
       <c r="R24" t="n">
         <v>140.6070990058403</v>
@@ -36615,7 +36615,7 @@
         <v>212.4516251880529</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.635180001749</v>
+        <v>151.6351800017489</v>
       </c>
       <c r="R26" t="n">
         <v>74.18585635623381</v>
@@ -36673,10 +36673,10 @@
         <v>39.55143148979141</v>
       </c>
       <c r="J27" t="n">
-        <v>362.3334963220263</v>
+        <v>96.11966070637389</v>
       </c>
       <c r="K27" t="n">
-        <v>127.8214891544226</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="L27" t="n">
         <v>179.4752137314575</v>
@@ -36694,7 +36694,7 @@
         <v>155.8729059076715</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.2687484297224</v>
+        <v>96.00310218514079</v>
       </c>
       <c r="R27" t="n">
         <v>140.6070990058403</v>
@@ -36758,13 +36758,13 @@
         <v>69.64789179042728</v>
       </c>
       <c r="L28" t="n">
-        <v>456.3009710146567</v>
+        <v>221.0779545411876</v>
       </c>
       <c r="M28" t="n">
         <v>456.3009710146567</v>
       </c>
       <c r="N28" t="n">
-        <v>221.0779545411876</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="O28" t="n">
         <v>456.3009710146567</v>
@@ -36852,10 +36852,10 @@
         <v>212.4516251880529</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.635180001749</v>
+        <v>151.6351800017489</v>
       </c>
       <c r="R29" t="n">
-        <v>74.18585635623381</v>
+        <v>74.1858563562339</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>362.3334963220263</v>
       </c>
       <c r="K30" t="n">
-        <v>127.8214891544226</v>
+        <v>190.0871353990042</v>
       </c>
       <c r="L30" t="n">
         <v>179.4752137314575</v>
@@ -36931,7 +36931,7 @@
         <v>155.8729059076715</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.2687484297224</v>
+        <v>96.00310218514079</v>
       </c>
       <c r="R30" t="n">
         <v>140.6070990058403</v>
@@ -36998,16 +36998,16 @@
         <v>456.3009710146567</v>
       </c>
       <c r="M31" t="n">
+        <v>99.68059570088121</v>
+      </c>
+      <c r="N31" t="n">
         <v>456.3009710146567</v>
       </c>
-      <c r="N31" t="n">
-        <v>221.0779545411876</v>
-      </c>
       <c r="O31" t="n">
-        <v>456.3009710146567</v>
+        <v>261.7829717001071</v>
       </c>
       <c r="P31" t="n">
-        <v>71.94700178479323</v>
+        <v>387.8623599396494</v>
       </c>
       <c r="Q31" t="n">
         <v>40.6881182559941</v>
@@ -37068,7 +37068,7 @@
         <v>32.4832631534929</v>
       </c>
       <c r="J32" t="n">
-        <v>118.1498842240171</v>
+        <v>118.149884224017</v>
       </c>
       <c r="K32" t="n">
         <v>185.4043413902064</v>
@@ -37092,7 +37092,7 @@
         <v>151.6351800017489</v>
       </c>
       <c r="R32" t="n">
-        <v>74.18585635623381</v>
+        <v>74.1858563562339</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.85718316210268</v>
+        <v>39.55143148979141</v>
       </c>
       <c r="J33" t="n">
-        <v>194.5162294232714</v>
+        <v>96.11966070637389</v>
       </c>
       <c r="K33" t="n">
-        <v>127.8214891544226</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="L33" t="n">
         <v>179.4752137314575</v>
@@ -37168,10 +37168,10 @@
         <v>155.8729059076715</v>
       </c>
       <c r="Q33" t="n">
-        <v>456.3009710146567</v>
+        <v>96.00310218514079</v>
       </c>
       <c r="R33" t="n">
-        <v>34.08639164734957</v>
+        <v>140.6070990058403</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.50360177297561</v>
+        <v>113.2124064681482</v>
       </c>
       <c r="K34" t="n">
-        <v>69.64789179042728</v>
+        <v>117.9829391487084</v>
       </c>
       <c r="L34" t="n">
-        <v>456.3009710146567</v>
+        <v>94.03410248773386</v>
       </c>
       <c r="M34" t="n">
         <v>456.3009710146567</v>
@@ -37241,7 +37241,7 @@
         <v>456.3009710146567</v>
       </c>
       <c r="O34" t="n">
-        <v>221.0779545411876</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="P34" t="n">
         <v>71.94700178479323</v>
@@ -37326,10 +37326,10 @@
         <v>212.4516251880529</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.635180001749</v>
+        <v>151.6351800017489</v>
       </c>
       <c r="R35" t="n">
-        <v>74.18585635623381</v>
+        <v>74.1858563562339</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.50360177297561</v>
+        <v>113.2124064681482</v>
       </c>
       <c r="K37" t="n">
-        <v>319.4283050369142</v>
+        <v>69.64789179042728</v>
       </c>
       <c r="L37" t="n">
-        <v>94.03410248773386</v>
+        <v>142.369149846015</v>
       </c>
       <c r="M37" t="n">
-        <v>375.3498633353683</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="N37" t="n">
-        <v>98.60015934605569</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="O37" t="n">
         <v>456.3009710146567</v>
       </c>
       <c r="P37" t="n">
-        <v>387.8623599396494</v>
+        <v>71.94700178479323</v>
       </c>
       <c r="Q37" t="n">
         <v>40.6881182559941</v>
@@ -37566,7 +37566,7 @@
         <v>151.6351800017489</v>
       </c>
       <c r="R38" t="n">
-        <v>74.18585635623381</v>
+        <v>74.1858563562339</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>39.55143148979141</v>
       </c>
       <c r="J39" t="n">
-        <v>180.9145443927662</v>
+        <v>362.3334963220263</v>
       </c>
       <c r="K39" t="n">
         <v>127.8214891544226</v>
@@ -37630,7 +37630,7 @@
         <v>179.4752137314575</v>
       </c>
       <c r="M39" t="n">
-        <v>456.3009710146567</v>
+        <v>212.6163728408149</v>
       </c>
       <c r="N39" t="n">
         <v>220.6087509224809</v>
@@ -37642,7 +37642,7 @@
         <v>155.8729059076715</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.00310218514079</v>
+        <v>158.2687484297224</v>
       </c>
       <c r="R39" t="n">
         <v>140.6070990058403</v>
@@ -37706,13 +37706,13 @@
         <v>69.64789179042728</v>
       </c>
       <c r="L40" t="n">
-        <v>456.3009710146567</v>
+        <v>221.0779545411876</v>
       </c>
       <c r="M40" t="n">
         <v>456.3009710146567</v>
       </c>
       <c r="N40" t="n">
-        <v>221.0779545411876</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="O40" t="n">
         <v>456.3009710146567</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.85718316210268</v>
+        <v>39.55143148979141</v>
       </c>
       <c r="J42" t="n">
-        <v>67.28047362546971</v>
+        <v>362.3334963220263</v>
       </c>
       <c r="K42" t="n">
-        <v>127.8214891544226</v>
+        <v>190.0871353990042</v>
       </c>
       <c r="L42" t="n">
         <v>179.4752137314575</v>
       </c>
       <c r="M42" t="n">
-        <v>456.3009710146567</v>
+        <v>212.6163728408149</v>
       </c>
       <c r="N42" t="n">
-        <v>456.3009710146567</v>
+        <v>220.6087509224809</v>
       </c>
       <c r="O42" t="n">
         <v>198.1667190703681</v>
@@ -37882,7 +37882,7 @@
         <v>96.00310218514079</v>
       </c>
       <c r="R42" t="n">
-        <v>42.24319800864968</v>
+        <v>140.6070990058403</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>113.2124064681482</v>
+        <v>34.50360177297561</v>
       </c>
       <c r="K43" t="n">
-        <v>319.4283050369142</v>
+        <v>69.64789179042728</v>
       </c>
       <c r="L43" t="n">
+        <v>221.0779545411876</v>
+      </c>
+      <c r="M43" t="n">
         <v>456.3009710146567</v>
       </c>
-      <c r="M43" t="n">
-        <v>99.68059570088121</v>
-      </c>
       <c r="N43" t="n">
-        <v>98.60015934605569</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="O43" t="n">
-        <v>138.0920428231098</v>
+        <v>456.3009710146567</v>
       </c>
       <c r="P43" t="n">
-        <v>387.8623599396494</v>
+        <v>71.94700178479323</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.5906408599325</v>
+        <v>40.6881182559941</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>32.4832631534929</v>
       </c>
       <c r="J44" t="n">
-        <v>118.149884224017</v>
+        <v>118.1498842240171</v>
       </c>
       <c r="K44" t="n">
         <v>185.4043413902064</v>
@@ -38040,7 +38040,7 @@
         <v>151.6351800017489</v>
       </c>
       <c r="R44" t="n">
-        <v>74.1858563562339</v>
+        <v>74.18585635623381</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.85718316210268</v>
+        <v>39.55143148979141</v>
       </c>
       <c r="J45" t="n">
         <v>362.3334963220263</v>
@@ -38116,7 +38116,7 @@
         <v>155.8729059076715</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.9629967574112</v>
+        <v>158.2687484297224</v>
       </c>
       <c r="R45" t="n">
         <v>140.6070990058403</v>
